--- a/不良反应总结.xlsx
+++ b/不良反应总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC-O10\Dropbox\云蜚科技\脂质紫杉醇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8BA429-A90E-4708-AF9B-8D8646AE2F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F74A1AF-D1E5-49EA-ADFA-4B3367371567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="62">
   <si>
     <t>病例编号</t>
   </si>
@@ -206,18 +206,6 @@
   </si>
   <si>
     <t>潮热</t>
-  </si>
-  <si>
-    <t>note:三列： 名称，所有级别，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号1算5次病，不算重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3以上级发生概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D1" sqref="D1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -599,7 +587,7 @@
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -620,14 +608,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -637,11 +619,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -652,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -663,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -674,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -685,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -696,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -707,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -718,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -729,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -740,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -751,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -762,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -773,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
